--- a/src/templates/Template.xlsx
+++ b/src/templates/Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10350" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10350" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>模版表备注写在这里</t>
   </si>
@@ -47,13 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -86,21 +80,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -174,29 +154,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -216,24 +175,19 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,6 +486,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -571,38 +526,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.3333333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="6" customWidth="1"/>
     <col min="3" max="16356" width="11" style="6"/>
     <col min="16357" max="16357" width="13" style="6" customWidth="1"/>
     <col min="16358" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:2">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:2">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -618,16 +571,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">
@@ -638,16 +591,19 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:Z3">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:Z3">
       <formula1>"byte,short,int,boolean,string"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:XEB3 XED3:XFD3">
       <formula1>"byte,short,int,long,boolean,string"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:S3">
+      <formula1>"byte,short,int,boolean,string,intArray,array"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/templates/Template.xlsx
+++ b/src/templates/Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="10350" tabRatio="500"/>
+    <workbookView windowWidth="21510" windowHeight="10350" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>模版表备注写在这里</t>
   </si>
@@ -47,6 +47,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -80,7 +86,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -154,8 +160,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -175,19 +196,22 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -486,7 +510,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -526,15 +549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="6" customWidth="1"/>
@@ -543,19 +570,19 @@
     <col min="16358" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -563,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -571,16 +598,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="5" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">
@@ -591,19 +618,19 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:S3">
+      <formula1>"byte,short,int,boolean,string,intArray,array"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:Z3">
       <formula1>"byte,short,int,boolean,string"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:XEB3 XED3:XFD3">
       <formula1>"byte,short,int,long,boolean,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:S3">
-      <formula1>"byte,short,int,boolean,string,intArray,array"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/templates/Template.xlsx
+++ b/src/templates/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10350" tabRatio="500"/>
+    <workbookView windowWidth="21495" windowHeight="10005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
-    <t>模版表备注写在这里</t>
+    <r>
+      <t>模版表备注写在这里</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：intArray用英文逗号分隔，array使用#号分隔</t>
+    </r>
   </si>
   <si>
     <t>字段名字</t>
@@ -48,12 +71,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -69,6 +92,13 @@
     <font>
       <sz val="12"/>
       <color indexed="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1" tint="0.15"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -90,8 +120,173 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +317,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -159,28 +540,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -199,18 +807,64 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -261,71 +915,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,7 +1212,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -574,13 +1228,13 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
@@ -599,7 +1253,7 @@
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -607,7 +1261,7 @@
       </c>
     </row>
     <row r="5" s="5" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">

--- a/src/templates/Template.xlsx
+++ b/src/templates/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10005" tabRatio="500"/>
+    <workbookView windowWidth="21495" windowHeight="10425" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1" tint="0.15"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>模版表备注写在这里</t>
     </r>
     <r>
@@ -71,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -122,30 +129,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,6 +152,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,7 +182,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,31 +218,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,39 +243,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,25 +326,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,55 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,31 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,61 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,8 +551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,9 +598,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,8 +625,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,17 +645,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +653,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +665,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1272,15 +1279,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:S3">
-      <formula1>"byte,short,int,boolean,string,intArray,array"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:XEB3 XED3:XFD3">
+      <formula1>"byte,short,int,long,boolean,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:Z3">
-      <formula1>"byte,short,int,boolean,string"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:XEB3 XED3:XFD3">
-      <formula1>"byte,short,int,long,boolean,string"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:AJ3">
+      <formula1>"byte,short,int,boolean,string,intArray,array,luaString"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
